--- a/Luban/Datas/skill.xlsx
+++ b/Luban/Datas/skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0776BE3A-F9AB-4C66-BE51-6D988CC7D1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF84E19-3078-46EF-A3AA-16B0D2582E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="4350" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39495" yWindow="1380" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>peter_attack</t>
-  </si>
-  <si>
-    <t>peter_attack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -142,6 +139,16 @@
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_item_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_item_2</t>
+  </si>
+  <si>
+    <t>test_item_3</t>
   </si>
 </sst>
 </file>
@@ -528,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -540,6 +547,7 @@
     <col min="2" max="2" width="8.625" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -553,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -609,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -644,7 +652,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
@@ -681,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -709,7 +717,7 @@
         <v>10001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -720,10 +728,10 @@
         <v>10002</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -731,10 +739,10 @@
         <v>20001</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -742,10 +750,10 @@
         <v>20002</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -753,10 +761,10 @@
         <v>30001</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -764,10 +772,43 @@
         <v>30002</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>40001</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>40002</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>40003</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
